--- a/src/main/resources/学习网站.xlsx
+++ b/src/main/resources/学习网站.xlsx
@@ -187,7 +187,8 @@
     <t>jvm优化</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3</t>
+    <t>https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3
+#小程序://CSDN/dGLwNh0TFDgFqWd</t>
   </si>
 </sst>
 </file>
@@ -200,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +213,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,32 +680,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,98 +714,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,6 +823,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1136,7 +1148,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1436,14 +1448,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="42.75" spans="1:3">
+    <row r="29" ht="71.25" spans="1:3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1454,6 +1466,7 @@
     <hyperlink ref="C9" r:id="rId3" display="https://blog.csdn.net/qq_41432730/article/details/120434541&#10;https://blog.csdn.net/leijie0322/article/details/122591437"/>
     <hyperlink ref="C24" r:id="rId4" display="https://blog.csdn.net/lhkxiaowang/article/details/103462868"/>
     <hyperlink ref="C28" r:id="rId5" display="https://blog.csdn.net/QiuHaoqian/article/details/114372935"/>
+    <hyperlink ref="C29" r:id="rId6" display="https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3&#10;&#10;#小程序://CSDN/dGLwNh0TFDgFqWd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/学习网站.xlsx
+++ b/src/main/resources/学习网站.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,8 @@
   </si>
   <si>
     <t>https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3
-#小程序://CSDN/dGLwNh0TFDgFqWd</t>
+#小程序://CSDN/dGLwNh0TFDgFqWd
+http://t.cn/EI9JdBu</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1149,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1448,7 +1449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="71.25" spans="1:3">
+    <row r="29" ht="99.75" spans="1:3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1466,7 +1467,7 @@
     <hyperlink ref="C9" r:id="rId3" display="https://blog.csdn.net/qq_41432730/article/details/120434541&#10;https://blog.csdn.net/leijie0322/article/details/122591437"/>
     <hyperlink ref="C24" r:id="rId4" display="https://blog.csdn.net/lhkxiaowang/article/details/103462868"/>
     <hyperlink ref="C28" r:id="rId5" display="https://blog.csdn.net/QiuHaoqian/article/details/114372935"/>
-    <hyperlink ref="C29" r:id="rId6" display="https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3&#10;&#10;#小程序://CSDN/dGLwNh0TFDgFqWd"/>
+    <hyperlink ref="C29" r:id="rId6" display="https://blog.csdn.net/dam454450872/article/details/102565247?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-102565247-blog-110449100.235^v36^pc_relevant_yljh&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3&#10;&#10;#小程序://CSDN/dGLwNh0TFDgFqWd&#10;&#10;http://t.cn/EI9JdBu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
